--- a/BalanceSheet/CRWD_bal.xlsx
+++ b/BalanceSheet/CRWD_bal.xlsx
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4769000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-3078000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4898000.0</v>
+        <v>10000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4736000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-2797000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>5244000.0</v>
